--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66956</v>
+        <v>49395</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alícia Ferreira</t>
+          <t>Vitor Gabriel Pinto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>9623.799999999999</v>
+        <v>3706.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13329</v>
+        <v>78521</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro Moura</t>
+          <t>Calebe Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>6318.44</v>
+        <v>12288.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91208</v>
+        <v>85570</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuelly da Costa</t>
+          <t>Dr. Antônio da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>3570.32</v>
+        <v>12133.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90238</v>
+        <v>83561</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joaquim Rocha</t>
+          <t>Sr. Leonardo Pires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,82 +584,82 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>6882.08</v>
+        <v>10582.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29072</v>
+        <v>14734</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara Castro</t>
+          <t>Sra. Camila Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>6526.7</v>
+        <v>2594.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5800</v>
+        <v>30661</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Alana Duarte</t>
+          <t>Letícia Dias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>4326.22</v>
+        <v>11149.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65148</v>
+        <v>33078</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ryan Nascimento</t>
+          <t>Srta. Isis Lima</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>11343.67</v>
+        <v>7912.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46764</v>
+        <v>94476</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nathan Azevedo</t>
+          <t>Isaac Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>9702.809999999999</v>
+        <v>11704.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80375</v>
+        <v>60801</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thiago Gomes</t>
+          <t>Heitor Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>5704.96</v>
+        <v>8368.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39866</v>
+        <v>85461</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Maria Clara Silveira</t>
+          <t>Cauê Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>10544.68</v>
+        <v>12153.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49395</v>
+        <v>15662</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Pinto</t>
+          <t>Carlos Eduardo Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>3706.28</v>
+        <v>4191.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78521</v>
+        <v>81941</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calebe Silveira</t>
+          <t>Yago Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>12288.35</v>
+        <v>9870.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85570</v>
+        <v>65458</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Antônio da Mata</t>
+          <t>Leonardo Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>12133.44</v>
+        <v>2897.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>83561</v>
+        <v>7471</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Leonardo Pires</t>
+          <t>Diego da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,118 +577,118 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>10582.41</v>
+        <v>5240.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14734</v>
+        <v>44545</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Camila Cavalcanti</t>
+          <t>Sr. Pedro Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>2594.49</v>
+        <v>8809.059999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30661</v>
+        <v>15469</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Letícia Dias</t>
+          <t>Marcela da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>11149.2</v>
+        <v>11210.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33078</v>
+        <v>96988</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Isis Lima</t>
+          <t>Luiz Felipe Mendes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>7912.72</v>
+        <v>4175.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94476</v>
+        <v>48081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Porto</t>
+          <t>Fernanda Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,21 +703,21 @@
         <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>11704.94</v>
+        <v>7472.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60801</v>
+        <v>85703</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heitor Martins</t>
+          <t>Bianca Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>8368.67</v>
+        <v>2794.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85461</v>
+        <v>79945</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cauê Melo</t>
+          <t>João Vitor da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>12153.02</v>
+        <v>6494.89</v>
       </c>
     </row>
   </sheetData>
